--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Cursuri\Anul 3\Semestrul II\Validarea Sistemelor Soft\Laborator\Lab01\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kevin\UBB\An_3_mate-info\Sem_2\VVSS\Lab\VVSS_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7794725-33F9-40B2-924D-9517C92B8CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA615CAB-7535-4244-AD52-912BB39F76F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -784,57 +784,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Nu se utilizează Observer Pattern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Controllerele apelează direct Repository-uri
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Controllerele trebuie să apeleze funcții din Service, care să aibă acces la Repo-uri</t>
     </r>
   </si>
   <si>
@@ -1096,13 +1045,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1239,6 +1195,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1367,168 +1331,169 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,41 +1803,41 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="75.21875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1881,7 +1846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -1892,14 +1857,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="57"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -1910,40 +1875,40 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="59"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="53">
         <v>45719</v>
       </c>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1957,11 +1922,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1971,12 +1936,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="24">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="25" t="s">
         <v>62</v>
       </c>
@@ -1984,12 +1949,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <f t="shared" ref="B12:B21" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="25" t="s">
         <v>44</v>
       </c>
@@ -1997,12 +1962,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -2012,12 +1977,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
@@ -2025,12 +1990,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="23" t="s">
         <v>58</v>
       </c>
@@ -2038,12 +2003,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -2053,12 +2018,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="25" t="s">
         <v>53</v>
       </c>
@@ -2066,7 +2031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2081,7 +2046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2096,12 +2061,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -2111,12 +2076,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="25" t="s">
         <v>46</v>
       </c>
@@ -2124,39 +2089,39 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="24">
         <v>13</v>
       </c>
       <c r="C22" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="26"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="26"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="26"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -2167,18 +2132,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2191,39 +2156,39 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="49" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.44140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.42578125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2232,7 +2197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -2243,14 +2208,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="60"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2261,40 +2226,40 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="62"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="53">
         <v>45719</v>
       </c>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -2320,7 +2285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -2329,11 +2294,11 @@
         <v>64</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B19" si="0">B11+1</f>
         <v>3</v>
@@ -2346,7 +2311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2359,7 +2324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2372,7 +2337,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2384,8 +2349,9 @@
       <c r="E15" s="35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2398,7 +2364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2411,7 +2377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2424,7 +2390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2437,41 +2403,41 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="37"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="37"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="37"/>
@@ -2485,7 +2451,7 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2498,40 +2464,40 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="46" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2540,7 +2506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -2551,14 +2517,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="63"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2569,40 +2535,40 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="65"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="53">
         <v>45719</v>
       </c>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -2616,269 +2582,269 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>110</v>
+      <c r="C10" s="46" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="24">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <f t="shared" ref="B12:B24" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>111</v>
+      <c r="C12" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>123</v>
+      <c r="C13" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>113</v>
+      <c r="C14" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="D14" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="66" t="s">
-        <v>113</v>
+      <c r="C15" s="47" t="s">
+        <v>112</v>
       </c>
       <c r="D15" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>114</v>
+      <c r="C16" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="D16" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="65" t="s">
-        <v>115</v>
+      <c r="C17" s="46" t="s">
+        <v>114</v>
       </c>
       <c r="D17" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="65" t="s">
+      <c r="C18" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="65" t="s">
-        <v>117</v>
+      <c r="C19" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="D19" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="65" t="s">
+      <c r="C20" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>123</v>
+      <c r="C21" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>132</v>
+      <c r="C23" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="65" t="s">
-        <v>121</v>
+      <c r="C24" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="D24" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
       <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="63"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="28"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="28"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="28"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="28"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2889,7 +2855,7 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2902,41 +2868,41 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="51.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2945,7 +2911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -2956,12 +2922,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2972,32 +2938,32 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="54"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="53">
         <v>45719</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -3014,222 +2980,222 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B10" s="24">
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="F10" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="193.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
       <c r="B11" s="24">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B16" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="36"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="36"/>
       <c r="D27" s="37"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="36"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kevin\UBB\An_3_mate-info\Sem_2\VVSS\Lab\VVSS_PizzaShop\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Cursuri\Anul 3\Semestrul II\Validarea Sistemelor Soft\Laborator\Proiect\VVSS_PizzaShop\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA615CAB-7535-4244-AD52-912BB39F76F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91FF8D1-71C0-4B35-AE4A-A25C1D5EC54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -710,83 +710,6 @@
     <t>☑</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Nu există clase dedicate Validărilor și Excepțiilor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Implementarea lor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nu se utilizează Observer Pattern</t>
-    </r>
-  </si>
-  <si>
     <t>R03</t>
   </si>
   <si>
@@ -1039,6 +962,60 @@
   </si>
   <si>
     <t>nu se respectă convențiile de denumire, numele metodei trebuie să înceapă cu literă mică deoarece ea nu este un constructor</t>
+  </si>
+  <si>
+    <t>☑ (Singleton, Repository Pattern, Observer, etc)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nu există clase dedicate Excepțiilor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implementarea lor</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1399,9 +1376,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1436,6 +1410,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,24 +1450,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1490,10 +1468,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1803,41 +1780,41 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="75.28515625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -1846,7 +1823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -1857,14 +1834,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="51"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -1875,40 +1852,40 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="54"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="60">
         <v>45719</v>
       </c>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1922,11 +1899,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1936,12 +1913,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="24">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="25" t="s">
         <v>62</v>
       </c>
@@ -1949,12 +1926,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="24">
         <f t="shared" ref="B12:B21" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="25" t="s">
         <v>44</v>
       </c>
@@ -1962,12 +1939,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -1977,12 +1954,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
@@ -1990,12 +1967,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="23" t="s">
         <v>58</v>
       </c>
@@ -2003,12 +1980,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="55" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -2018,12 +1995,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="25" t="s">
         <v>53</v>
       </c>
@@ -2031,12 +2008,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -2046,12 +2023,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -2061,12 +2038,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="58" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -2076,12 +2053,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="25" t="s">
         <v>46</v>
       </c>
@@ -2089,39 +2066,39 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="24">
         <v>13</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="26"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="26"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="26"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -2132,16 +2109,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2156,39 +2133,39 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="49" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.44140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2197,7 +2174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -2208,14 +2185,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2226,40 +2203,40 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="60">
         <v>45719</v>
       </c>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -2285,7 +2262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -2294,11 +2271,11 @@
         <v>64</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B19" si="0">B11+1</f>
         <v>3</v>
@@ -2311,7 +2288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2324,7 +2301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2334,10 +2311,10 @@
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2346,12 +2323,12 @@
         <v>68</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="67"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2364,7 +2341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2377,7 +2354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2390,7 +2367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2403,44 +2380,44 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2464,40 +2441,40 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="46" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2506,7 +2483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -2517,14 +2494,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2535,40 +2512,40 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="60">
         <v>45719</v>
       </c>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="52"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -2582,269 +2559,269 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>109</v>
+      <c r="C10" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="24">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="24">
         <f t="shared" ref="B12:B24" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>110</v>
+      <c r="C12" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>122</v>
+      <c r="C13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>112</v>
+      <c r="C14" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>112</v>
+      <c r="C15" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>113</v>
+      <c r="C16" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>114</v>
+      <c r="C17" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>116</v>
+      <c r="C19" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>134</v>
+      <c r="C20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>122</v>
+      <c r="C21" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>131</v>
+      <c r="C23" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>129</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="46" t="s">
-        <v>120</v>
+      <c r="C24" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="28"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2868,41 +2845,41 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="63.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="H2" s="3"/>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -2911,7 +2888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
@@ -2922,12 +2899,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2938,32 +2915,32 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="52"/>
       <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="60">
         <v>45719</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -2980,222 +2957,222 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="B10" s="24">
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="193.2" x14ac:dyDescent="0.3">
       <c r="B11" s="24">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B16" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>105</v>
-      </c>
       <c r="F15" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="19"/>
     </row>
   </sheetData>
